--- a/DSA 360 Excelsheet.xlsx
+++ b/DSA 360 Excelsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9FEA5F50C95E1766/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="8_{81425365-7CA6-41DE-AC04-93340B78154E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B71EF22-2512-411A-9D5F-ECEC7EE7F7C0}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="8_{81425365-7CA6-41DE-AC04-93340B78154E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{440D4DC1-7C6F-4267-8AAA-3FB9F559BA8C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{749BDBBA-8F77-40C5-80CA-1080A848F3AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="67">
   <si>
     <t>Week</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Array 1D &amp; 2D</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Angle between hour and minute hand</t>
   </si>
   <si>
@@ -162,6 +159,84 @@
   </si>
   <si>
     <t>Leetcode</t>
+  </si>
+  <si>
+    <t>Mean and Median of Array</t>
+  </si>
+  <si>
+    <t>First and Second Smallest</t>
+  </si>
+  <si>
+    <t>Array Duplicates</t>
+  </si>
+  <si>
+    <t>Missing and Repeating</t>
+  </si>
+  <si>
+    <t>Rotate Array Clockwise</t>
+  </si>
+  <si>
+    <t>Reverse array in groups</t>
+  </si>
+  <si>
+    <t>Local Min and Max Sequence Ordering</t>
+  </si>
+  <si>
+    <t>Construct an array from its pair sum array</t>
+  </si>
+  <si>
+    <t>Wave array</t>
+  </si>
+  <si>
+    <t>Max sum in the configuration</t>
+  </si>
+  <si>
+    <t>Kadane's Algorithm</t>
+  </si>
+  <si>
+    <t>Maximum product subarray</t>
+  </si>
+  <si>
+    <t>Majority element</t>
+  </si>
+  <si>
+    <t>Max consecutive Bit</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Rotate by 90 degree</t>
+  </si>
+  <si>
+    <t>Spirally traversing a Matrix</t>
+  </si>
+  <si>
+    <t>Transpose of Matrix</t>
+  </si>
+  <si>
+    <t>Rotate a Matrix by 180 Counterclockwise</t>
+  </si>
+  <si>
+    <t>Swap diagonals</t>
+  </si>
+  <si>
+    <t>Multiply 2 matrices</t>
+  </si>
+  <si>
+    <t>GFG160</t>
+  </si>
+  <si>
+    <t>Second Largest</t>
+  </si>
+  <si>
+    <t>Move all Zeroes to End</t>
+  </si>
+  <si>
+    <t>Reverse an Array</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
   </si>
 </sst>
 </file>
@@ -324,19 +399,19 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCF0061-41E3-4F00-92E3-632D584262A6}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,7 +764,7 @@
     <col min="1" max="1" width="10.54296875" customWidth="1"/>
     <col min="2" max="2" width="29.36328125" customWidth="1"/>
     <col min="3" max="3" width="7.26953125" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" customWidth="1"/>
+    <col min="4" max="4" width="34.08984375" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" customWidth="1"/>
     <col min="6" max="6" width="53.1796875" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" customWidth="1"/>
@@ -720,10 +795,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A2" s="12">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2">
@@ -739,14 +814,14 @@
         <v>10</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="13"/>
       <c r="C3" s="1">
         <v>2</v>
@@ -758,14 +833,14 @@
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="13"/>
       <c r="C4" s="1">
         <v>3</v>
@@ -777,14 +852,14 @@
         <v>9</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="13"/>
       <c r="C5" s="1">
         <v>4</v>
@@ -796,14 +871,14 @@
         <v>12</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="13"/>
       <c r="C6" s="1">
         <v>5</v>
@@ -815,14 +890,14 @@
         <v>9</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="13"/>
       <c r="C7" s="1">
         <v>6</v>
@@ -834,318 +909,321 @@
         <v>12</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="13"/>
       <c r="C8" s="1">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="13"/>
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="13"/>
       <c r="C10" s="1">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="13"/>
       <c r="C11" s="1">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="13"/>
       <c r="C12" s="1">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="13"/>
       <c r="C13" s="1">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="13"/>
       <c r="C14" s="1">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="13"/>
       <c r="C15" s="1">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="13"/>
       <c r="C16" s="1">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="13"/>
       <c r="C17" s="1">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="13"/>
       <c r="C18" s="1">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="13"/>
       <c r="C19" s="1">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="13"/>
       <c r="C20" s="1">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="13"/>
       <c r="C21" s="1">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="13"/>
       <c r="C22" s="1">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="13"/>
       <c r="C23" s="1">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="13"/>
       <c r="C24" s="1">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A25" s="12"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="13"/>
       <c r="C25" s="1">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="13"/>
       <c r="C26" s="1">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="14">
         <v>2</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -1154,84 +1232,405 @@
       <c r="C27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14"/>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="14"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="12"/>
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="12"/>
-      <c r="B38" s="14"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="12"/>
-      <c r="B39" s="14"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="12"/>
-      <c r="B40" s="14"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="12"/>
-      <c r="B41" s="14"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="12"/>
-      <c r="B42" s="14"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="12"/>
-      <c r="B43" s="14"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="12"/>
-      <c r="B44" s="14"/>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="2">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="1">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="1">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="1">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="1">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="1">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="1">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="1">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="1">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="1">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="1">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="1">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="1">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="1">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="1">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="1">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="15"/>
+      <c r="C45" s="1">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="15"/>
+      <c r="C46" s="1">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="15"/>
+      <c r="C47" s="1">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C48" s="1">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C49" s="1">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C50" s="1">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C51" s="1">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C53" s="1">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="A2:A26"/>
-    <mergeCell ref="B27:B44"/>
     <mergeCell ref="A27:A44"/>
+    <mergeCell ref="B27:B47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{D093CE5B-6AFB-4171-8F4E-681E2F9F4703}"/>
